--- a/hw3-review.xlsx
+++ b/hw3-review.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsaleem/Documents/HU/Courses/2021_Spring/CS201/hw/hw2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsaleem/Documents/HU/Courses/2021_Spring/CS201/hw/hw3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42191E98-A60B-704A-9C02-02C6A86135D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886B1160-0BBE-E94C-A1FF-844638B55834}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="500" windowWidth="28040" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5860" yWindow="500" windowWidth="28040" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rubric" sheetId="1" r:id="rId1"/>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Weight</t>
   </si>
   <si>
-    <t>There are no issues AND there are additional things to like.</t>
-  </si>
-  <si>
     <t>Style</t>
   </si>
   <si>
@@ -54,21 +51,9 @@
     <t>Code is pleasantly formatted and readable, variable names are meaningful, functions are short and modular, lines are generally less than 80 characters long, code is meaningfully documented, nesting is not overly deep, whitespace is used in a consistent manner contributing to readability and good formatting.</t>
   </si>
   <si>
-    <t>The approaches have no possible room for improvement and demonstrate exceptional style and efficiency.</t>
-  </si>
-  <si>
     <t>Attention is paid to efficiency. Code makes intelligent choices so as to avoid inefficiencies.</t>
   </si>
   <si>
-    <t>0 - Meets less than 75% of the expectation.</t>
-  </si>
-  <si>
-    <t>1 - Meets 75% or more of the expectaion.</t>
-  </si>
-  <si>
-    <t>1.05 - Meets 100% of the expectation and then some..</t>
-  </si>
-  <si>
     <t>To WS: I awarded this score  because …</t>
   </si>
   <si>
@@ -81,40 +66,76 @@
     <t>Correctness</t>
   </si>
   <si>
-    <t>checked by Travis / pytest</t>
-  </si>
-  <si>
-    <t>Chained Hash Table</t>
-  </si>
-  <si>
-    <t>Tests pass.</t>
-  </si>
-  <si>
-    <t>Linear Hash Table</t>
-  </si>
-  <si>
     <t>checked by instructor</t>
   </si>
   <si>
-    <t>The corresponding classes meet their interface and correctly implement a hash table that uses chaining for conflict resolution.</t>
-  </si>
-  <si>
-    <t>The corresponding classes meet their interface and correctly implement a hash table that uses linear probing for conflict resolution.</t>
-  </si>
-  <si>
-    <t>Skiplist</t>
-  </si>
-  <si>
     <t>checked by peers</t>
   </si>
   <si>
-    <t>checked by instructors</t>
-  </si>
-  <si>
-    <t>As per correctness</t>
-  </si>
-  <si>
-    <t>Total (100)</t>
+    <t>add_word</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>__init__</t>
+  </si>
+  <si>
+    <t>add_doc</t>
+  </si>
+  <si>
+    <t>query</t>
+  </si>
+  <si>
+    <t>Refinement</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>checked automatically byGitHub</t>
+  </si>
+  <si>
+    <t>trie</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>The tests pass</t>
+  </si>
+  <si>
+    <t>Score Key</t>
+  </si>
+  <si>
+    <t>Meets less than 75% of the expectation.</t>
+  </si>
+  <si>
+    <t>Meets 100% of the expectation and then some.</t>
+  </si>
+  <si>
+    <t>Meets 75% or more of the expectation .</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>In the awesome branch, the refinements are adequately described in the README and correctly implemented. They represent insight, thought, and effort, ranging from (low:) case insensitivity to (medium:) stemming, stopword removal, or higher. Surprise us!</t>
+  </si>
+  <si>
+    <t>The passed word is correctly added to the trie.</t>
+  </si>
+  <si>
+    <t>Appropriate matches to the passed word from the trie are correctly identified and returned.</t>
+  </si>
+  <si>
+    <t>The index is appropriately initialized.</t>
+  </si>
+  <si>
+    <t>The passed document is correctly added to the index.</t>
+  </si>
+  <si>
+    <t>Correctly returns a ranked list of documents in the index as per similarity with the wuery.</t>
   </si>
 </sst>
 </file>
@@ -686,9 +707,6 @@
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -710,11 +728,14 @@
     <xf numFmtId="0" fontId="24" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1071,275 +1092,310 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="46.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
       <c r="B1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="B2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="14"/>
+        <v>20</v>
+      </c>
+      <c r="C2" s="13"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="15">
-        <v>10</v>
+      <c r="G2" s="8"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="14">
+        <v>15</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
-      <c r="F3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="15">
-        <v>10</v>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="14">
+        <v>15</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="14"/>
+        <v>11</v>
+      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="15">
-        <v>15</v>
+      <c r="G5" s="8"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="14">
+        <v>10</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="15">
-        <v>15</v>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="14">
+        <v>10</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>25</v>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="C8" s="14">
-        <v>30</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" ht="136" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="15">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="14">
         <v>10</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="14">
+        <v>20</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="14">
+        <v>10</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="B13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="15">
+      <c r="C14" s="14">
         <v>10</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="14">
+        <v>10</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="16">
+        <v>110</v>
+      </c>
+      <c r="D16" s="11">
+        <f>SUMPRODUCT(C3:C15,D3:D15)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
+        <v>0</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
+        <v>1</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="12">
-        <f>SUMPRODUCT(C10:C11,G10:G11)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="4"/>
+    </row>
+    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
+        <v>1.05</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10:G11 G3:G4 G6:G7" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D15 D6:D10 D12 D3:D4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"0,1,1.05"</formula1>
     </dataValidation>
   </dataValidations>

--- a/hw3-review.xlsx
+++ b/hw3-review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsaleem/Documents/HU/Courses/2021_Spring/CS201/hw/hw3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886B1160-0BBE-E94C-A1FF-844638B55834}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A900F2-1494-7E49-8B37-39D337CA6143}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5860" yWindow="500" windowWidth="28040" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,9 +117,6 @@
     <t>Meets 75% or more of the expectation .</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>In the awesome branch, the refinements are adequately described in the README and correctly implemented. They represent insight, thought, and effort, ranging from (low:) case insensitivity to (medium:) stemming, stopword removal, or higher. Surprise us!</t>
   </si>
   <si>
@@ -136,6 +133,9 @@
   </si>
   <si>
     <t>Correctly returns a ranked list of documents in the index as per similarity with the wuery.</t>
+  </si>
+  <si>
+    <t>awesome (bonus)</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1094,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1195,7 +1197,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="14">
         <v>10</v>
@@ -1211,7 +1213,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="14">
         <v>10</v>
@@ -1227,7 +1229,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="14">
         <v>5</v>
@@ -1243,7 +1245,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="14">
         <v>10</v>
@@ -1259,7 +1261,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="14">
         <v>20</v>
@@ -1286,10 +1288,10 @@
     </row>
     <row r="12" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="C12" s="14">
         <v>10</v>
@@ -1352,7 +1354,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="16">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D16" s="11">
         <f>SUMPRODUCT(C3:C15,D3:D15)</f>
